--- a/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\c_Multi-Good-MicroGrid\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC529CD3-5296-4A96-BC2C-38A5CD9B722A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57DA7A3-21F5-442C-A8FA-FAA2280F6E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1524" yWindow="1524" windowWidth="17280" windowHeight="9060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -142,6 +142,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">

--- a/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\c_Multi-Good-MicroGrid\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57DA7A3-21F5-442C-A8FA-FAA2280F6E60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7F8EF2-DEFA-4DD9-A8BA-0A665580B98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2265" yWindow="2265" windowWidth="21600" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -494,16 +493,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -549,7 +550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -569,10 +570,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>3.8023452530911098E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -592,10 +593,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>129.41141517733669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1387.625459166667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -603,19 +604,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>29.433265663982588</v>
+        <v>296.03199999999998</v>
       </c>
       <c r="D5">
-        <v>60.661714747041138</v>
+        <v>1157.10682</v>
       </c>
       <c r="E5">
-        <v>7.4480246283801028</v>
+        <v>40.387</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>97.543005039403823</v>
+        <v>1493.5258200000001</v>
       </c>
     </row>
   </sheetData>
@@ -629,18 +630,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -669,7 +670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -695,10 +696,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>7.4515832604390334E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.88502738285761162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -727,7 +728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -751,10 +752,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>2.091289889200111E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -778,10 +779,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>2.588228303546735E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.27752509183333351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -793,22 +794,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.943326566398259E-3</v>
+        <v>2.96032E-2</v>
       </c>
       <c r="F6">
-        <v>6.0661714747041141E-3</v>
+        <v>0.115710682</v>
       </c>
       <c r="G6">
-        <v>7.4480246283801035E-4</v>
+        <v>4.0387000000000001E-3</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>9.7543005039403829E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.14935258200000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -837,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -861,10 +862,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>5.838297936398329E-9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -888,10 +889,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>3.6128056759515872E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.3873863158132132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -903,22 +904,22 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>6.1627099765645065E-4</v>
+        <v>6.1982906708677159E-3</v>
       </c>
       <c r="F10">
-        <v>1.2701293799164399E-3</v>
+        <v>2.4227395712637181E-2</v>
       </c>
       <c r="G10">
-        <v>1.559460516784719E-4</v>
+        <v>8.4561927536325274E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.0423464292513632E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.1271305658868147E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -944,10 +945,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>7.0881912501856415E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.9492087552196763E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -976,7 +977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1020,14 +1021,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1038,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1046,16 +1047,16 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>29.980561012863809</v>
+        <v>1670.3766851</v>
       </c>
       <c r="D2">
-        <v>2.6778880135253211</v>
+        <v>371.84483853</v>
       </c>
       <c r="E2">
-        <v>32.658449026389128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2042.2215236300001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1072,7 +1073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1097,16 +1098,16 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>0.21067288821880109</v>
+        <v>7.7388632248696118E-2</v>
       </c>
       <c r="D5">
-        <v>1.009849123551511</v>
+        <v>1.0101010101010099</v>
       </c>
       <c r="E5">
-        <v>0.27620277482065658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.24721559740620461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>35.508652771773953</v>
+        <v>7.5350687817872649E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\c_Multi-Good-MicroGrid\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7F8EF2-DEFA-4DD9-A8BA-0A665580B98D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="2265" windowWidth="21600" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -129,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,9 +190,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -488,23 +479,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -547,10 +537,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1729.802117575254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -570,10 +560,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6553.0566331823038</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -593,10 +583,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>1387.625459166667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>98.116476608570437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -604,19 +594,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>296.03199999999998</v>
+        <v>297.8</v>
       </c>
       <c r="D5">
-        <v>1157.10682</v>
+        <v>1073.106</v>
       </c>
       <c r="E5">
-        <v>40.387</v>
+        <v>56.100999999999999</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>47.43703977891181</v>
       </c>
       <c r="G5">
-        <v>1493.5258200000001</v>
+        <v>1474.4440397789119</v>
       </c>
     </row>
   </sheetData>
@@ -625,23 +615,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -670,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -696,10 +684,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>0.88502738285761162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.675264476690022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -725,10 +713,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.34596042351505069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -752,10 +740,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.6041811482502668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -779,10 +767,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.27752509183333351</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.9623295321714081E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -794,22 +782,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.96032E-2</v>
+        <v>2.9780000000000001E-2</v>
       </c>
       <c r="F6">
-        <v>0.115710682</v>
+        <v>0.10731060000000001</v>
       </c>
       <c r="G6">
-        <v>4.0387000000000001E-3</v>
+        <v>5.6101000000000007E-3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.7437039778911814E-3</v>
       </c>
       <c r="I6">
-        <v>0.14935258200000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.14744440397789119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -835,10 +823,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.6582498539022024E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -862,10 +850,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.006186826078123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -889,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>0.3873863158132132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.7391382986583088E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -904,22 +892,22 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>6.1982906708677159E-3</v>
+        <v>6.2353088915536358E-3</v>
       </c>
       <c r="F10">
-        <v>2.4227395712637181E-2</v>
+        <v>2.2468594302819191E-2</v>
       </c>
       <c r="G10">
-        <v>8.4561927536325274E-4</v>
+        <v>1.1746375558262269E-3</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.9323235702630059E-4</v>
       </c>
       <c r="I10">
-        <v>3.1271305658868147E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.0871773107225359E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -945,10 +933,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>3.9492087552196763E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.39702272491414548</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -977,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1016,19 +1004,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1039,7 +1027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1047,16 +1035,16 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>1670.3766851</v>
+        <v>296111.13119142258</v>
       </c>
       <c r="D2">
-        <v>371.84483853</v>
+        <v>145482.79193819009</v>
       </c>
       <c r="E2">
-        <v>2042.2215236300001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>441593.92312961258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1070,10 +1058,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.36747665930473272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1087,10 +1075,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.63252334069526728</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1098,16 +1086,16 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>7.7388632248696118E-2</v>
+        <v>0.16133879840240151</v>
       </c>
       <c r="D5">
-        <v>1.0101010101010099</v>
+        <v>1.010097467358436</v>
       </c>
       <c r="E5">
-        <v>0.24721559740620461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.44096171523593591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1121,7 +1109,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>7.5350687817872649E-3</v>
+        <v>1.2527700483863421E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
@@ -488,10 +488,8 @@
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -537,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>1729.802117575254</v>
+        <v>1312.2779785612379</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -560,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>6553.0566331823038</v>
+        <v>6257.514979476432</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -583,7 +581,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>98.116476608570437</v>
+        <v>158.64121632925449</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -594,19 +592,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>297.8</v>
+        <v>293.24271699682538</v>
       </c>
       <c r="D5">
-        <v>1073.106</v>
+        <v>1071.3409467184181</v>
       </c>
       <c r="E5">
-        <v>56.100999999999999</v>
+        <v>54.738511375020529</v>
       </c>
       <c r="F5">
-        <v>47.43703977891181</v>
+        <v>47.444073364881973</v>
       </c>
       <c r="G5">
-        <v>1474.4440397789119</v>
+        <v>1466.7662484551461</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>5.675264476690022</v>
+        <v>8.9808554764706336</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -713,7 +711,7 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>0.34596042351505069</v>
+        <v>2.6245559571224759</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -740,7 +738,7 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>3.6041811482502668</v>
+        <v>3.4416332387120381</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -767,7 +765,7 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>1.9623295321714081E-2</v>
+        <v>3.1728243265850907E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -782,19 +780,19 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.9780000000000001E-2</v>
+        <v>2.932427169968254E-2</v>
       </c>
       <c r="F6">
-        <v>0.10731060000000001</v>
+        <v>0.1071340946718418</v>
       </c>
       <c r="G6">
-        <v>5.6101000000000007E-3</v>
+        <v>5.4738511375020523E-3</v>
       </c>
       <c r="H6">
-        <v>4.7437039778911814E-3</v>
+        <v>4.7444073364881966E-3</v>
       </c>
       <c r="I6">
-        <v>0.14744440397789119</v>
+        <v>0.14667662484551461</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -823,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>9.6582498539022024E-2</v>
+        <v>0.73270280258902332</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -850,7 +848,7 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>1.006186826078123</v>
+        <v>0.96080798454478178</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -877,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>2.7391382986583088E-2</v>
+        <v>4.4288201779479952E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -892,19 +890,19 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>6.2353088915536358E-3</v>
+        <v>6.1398889209995028E-3</v>
       </c>
       <c r="F10">
-        <v>2.2468594302819191E-2</v>
+        <v>2.2431637780251319E-2</v>
       </c>
       <c r="G10">
-        <v>1.1746375558262269E-3</v>
+        <v>1.1461098948525031E-3</v>
       </c>
       <c r="H10">
-        <v>9.9323235702630059E-4</v>
+        <v>9.9337962559963586E-4</v>
       </c>
       <c r="I10">
-        <v>3.0871773107225359E-2</v>
+        <v>3.0711016221702959E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -933,7 +931,7 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>0.39702272491414548</v>
+        <v>0.96775140738976617</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1035,13 +1033,13 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>296111.13119142258</v>
+        <v>252831.56269426661</v>
       </c>
       <c r="D2">
-        <v>145482.79193819009</v>
+        <v>157364.5937535101</v>
       </c>
       <c r="E2">
-        <v>441593.92312961258</v>
+        <v>410196.15644777671</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1058,7 +1056,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.36747665930473272</v>
+        <v>0.48342013530348033</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1075,7 +1073,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.63252334069526728</v>
+        <v>0.51657986469651973</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1086,13 +1084,13 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>0.16133879840240151</v>
+        <v>0.18895668559297071</v>
       </c>
       <c r="D5">
-        <v>1.010097467358436</v>
+        <v>0.93383013405912441</v>
       </c>
       <c r="E5">
-        <v>0.44096171523593591</v>
+        <v>0.47471437925526039</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1109,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>1.2527700483863421E-4</v>
+        <v>1.982453292885257E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\c_Multi-Good-MicroGrid\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B604729-FA92-49DD-A3F2-EFB4447EC8F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -129,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,9 +190,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -488,21 +479,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -545,10 +535,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>3.0180323866402238E-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1312.2779785612379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -568,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1.3520627674007589E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>6257.514979476432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -591,10 +581,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>1387.625472508334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>158.64121632925449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -602,19 +592,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>296.03204427894377</v>
+        <v>293.24271699682538</v>
       </c>
       <c r="D5">
-        <v>1157.1068469522961</v>
+        <v>1071.3409467184181</v>
       </c>
       <c r="E5">
-        <v>40.387018029360441</v>
+        <v>54.738511375020529</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>47.444073364881973</v>
       </c>
       <c r="G5">
-        <v>1493.5259092606</v>
+        <v>1466.7662484551461</v>
       </c>
     </row>
   </sheetData>
@@ -623,23 +613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -668,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -694,10 +682,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>0.88502754208775869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.9808554764706336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -723,10 +711,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>6.0360647732804491E-11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.6245559571224759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -750,10 +738,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>7.4363452207041733E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.4416332387120381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -777,10 +765,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.27752509450166679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.1728243265850907E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -792,22 +780,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.9603204427894381E-2</v>
+        <v>2.932427169968254E-2</v>
       </c>
       <c r="F6">
-        <v>0.1157106846952296</v>
+        <v>0.1071340946718418</v>
       </c>
       <c r="G6">
-        <v>4.0387018029360436E-3</v>
+        <v>5.4738511375020523E-3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.7444073364881966E-3</v>
       </c>
       <c r="I6">
-        <v>0.14935259092606001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.14667662484551461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -833,10 +821,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>1.685100888776775E-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.73270280258902332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -860,10 +848,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>2.076020124258747E-8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.96080798454478178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -887,10 +875,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>0.38738631953783431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.4288201779479952E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -902,22 +890,22 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>6.198291597976152E-3</v>
+        <v>6.1398889209995028E-3</v>
       </c>
       <c r="F10">
-        <v>2.4227396276961861E-2</v>
+        <v>2.2431637780251319E-2</v>
       </c>
       <c r="G10">
-        <v>8.4561965286033625E-4</v>
+        <v>1.1461098948525031E-3</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.9337962559963586E-4</v>
       </c>
       <c r="I10">
-        <v>3.1271307527798338E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.0711016221702959E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -943,10 +931,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>3.9492134393534148E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.96775140738976617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -975,7 +963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1014,19 +1002,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1037,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1045,16 +1033,16 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>21.642223833984058</v>
+        <v>1591.116149012608</v>
       </c>
       <c r="D2">
-        <v>6.1974206049750062</v>
+        <v>2622.7432292251692</v>
       </c>
       <c r="E2">
-        <v>27.83964443895907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4213.8593782377766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -1068,10 +1056,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.99999999999198796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.16189627300187501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1085,10 +1073,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>8.0120002464536985E-12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.83810372699812496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1096,16 +1084,16 @@
         <v>29</v>
       </c>
       <c r="C5">
-        <v>9.9549356227288832E-2</v>
+        <v>0.50042663583094416</v>
       </c>
       <c r="D5">
-        <v>1.010099929580609</v>
+        <v>0.93383013405912429</v>
       </c>
       <c r="E5">
-        <v>0.30224824117693672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.7701807943040323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1119,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>7.5350701374629558</v>
+        <v>0.1982453292885257</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\c_Multi-Good-MicroGrid\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C559392-1A4F-4F28-A096-F8BCEE6F346D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="35">
   <si>
     <t>Component</t>
   </si>
@@ -76,6 +82,9 @@
   </si>
   <si>
     <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>Replacement Cost</t>
   </si>
   <si>
     <t>Fuel cost</t>
@@ -123,8 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +145,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -190,6 +200,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -479,20 +492,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -535,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>1312.2779785612379</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>3.0180323866402238E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -558,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>6257.514979476432</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.3520627674007589E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -581,10 +595,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>158.64121632925449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1387.625472508334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -592,19 +606,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>293.24271699682538</v>
+        <v>296.03204427894377</v>
       </c>
       <c r="D5">
-        <v>1071.3409467184181</v>
+        <v>1157.1068469522961</v>
       </c>
       <c r="E5">
-        <v>54.738511375020529</v>
+        <v>40.387018029360441</v>
       </c>
       <c r="F5">
-        <v>47.444073364881973</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1466.7662484551461</v>
+        <v>1493.5259092606</v>
       </c>
     </row>
   </sheetData>
@@ -613,21 +627,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -656,7 +672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -682,10 +698,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>8.9808554764706336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.88502754208775869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -711,10 +727,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>2.6245559571224759</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>6.0360647732804491E-11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -738,10 +754,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>3.4416332387120381</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>7.4363452207041733E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -765,10 +781,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>3.1728243265850907E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.27752509450166679</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -780,22 +796,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.932427169968254E-2</v>
+        <v>2.9603204427894381E-2</v>
       </c>
       <c r="F6">
-        <v>0.1071340946718418</v>
+        <v>0.1157106846952296</v>
       </c>
       <c r="G6">
-        <v>5.4738511375020523E-3</v>
+        <v>4.0387018029360436E-3</v>
       </c>
       <c r="H6">
-        <v>4.7444073364881966E-3</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.14667662484551461</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.14935259092606001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -821,10 +837,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>0.73270280258902332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>1.685100888776775E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -848,10 +864,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>0.96080798454478178</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>2.076020124258747E-8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -875,10 +891,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>4.4288201779479952E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.38738631953783431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -890,60 +906,60 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>6.1398889209995028E-3</v>
+        <v>6.198291597976152E-3</v>
       </c>
       <c r="F10">
-        <v>2.2431637780251319E-2</v>
+        <v>2.4227396276961861E-2</v>
       </c>
       <c r="G10">
-        <v>1.1461098948525031E-3</v>
+        <v>8.4561965286033625E-4</v>
       </c>
       <c r="H10">
-        <v>9.9337962559963586E-4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3.0711016221702959E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>3.1271307527798338E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>3.5957079908254997E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>0.96775140738976617</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
@@ -960,10 +976,10 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>3.9492134393534148E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -971,24 +987,53 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13">
         <v>0</v>
       </c>
-      <c r="F13">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="H13">
+      <c r="G14">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
     </row>
@@ -1002,52 +1047,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>1591.116149012608</v>
+        <v>21.642223833984058</v>
       </c>
       <c r="D2">
-        <v>2622.7432292251692</v>
+        <v>6.1974206049750062</v>
       </c>
       <c r="E2">
-        <v>4213.8593782377766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>27.83964443895907</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1056,16 +1101,16 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.16189627300187501</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.99999999999198796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -1073,32 +1118,32 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.83810372699812496</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>8.0120002464536985E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>0.50042663583094416</v>
+        <v>9.9549356227288832E-2</v>
       </c>
       <c r="D5">
-        <v>0.93383013405912429</v>
+        <v>1.010099929580609</v>
       </c>
       <c r="E5">
-        <v>0.7701807943040323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.30224824117693672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1107,7 +1152,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>0.1982453292885257</v>
+        <v>7.5350701374629558</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/c_Multi-Good-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\c_Multi-Good-MicroGrid\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C559392-1A4F-4F28-A096-F8BCEE6F346D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="34">
   <si>
     <t>Component</t>
   </si>
@@ -82,9 +76,6 @@
   </si>
   <si>
     <t>Fixed Cost</t>
-  </si>
-  <si>
-    <t>Replacement Cost</t>
   </si>
   <si>
     <t>Fuel cost</t>
@@ -132,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,7 +136,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,9 +190,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -492,21 +479,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -549,10 +535,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>3.0180323866402238E-8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1312.2779785612379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -572,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1.3520627674007589E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6257.514979476432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -595,10 +581,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>1387.625472508334</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>158.64121632925449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -606,19 +592,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>296.03204427894377</v>
+        <v>293.24271699682538</v>
       </c>
       <c r="D5">
-        <v>1157.1068469522961</v>
+        <v>1071.3409467184181</v>
       </c>
       <c r="E5">
-        <v>40.387018029360441</v>
+        <v>54.738511375020529</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>47.444073364881973</v>
       </c>
       <c r="G5">
-        <v>1493.5259092606</v>
+        <v>1466.7662484551461</v>
       </c>
     </row>
   </sheetData>
@@ -627,23 +613,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -672,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -698,10 +682,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>0.88502754208775869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8.9808554764706336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -727,10 +711,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>6.0360647732804491E-11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.6245559571224759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -754,10 +738,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>7.4363452207041733E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.4416332387120381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -781,10 +765,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>0.27752509450166679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.1728243265850907E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -796,22 +780,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.9603204427894381E-2</v>
+        <v>2.932427169968254E-2</v>
       </c>
       <c r="F6">
-        <v>0.1157106846952296</v>
+        <v>0.1071340946718418</v>
       </c>
       <c r="G6">
-        <v>4.0387018029360436E-3</v>
+        <v>5.4738511375020523E-3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.7444073364881966E-3</v>
       </c>
       <c r="I6">
-        <v>0.14935259092606001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.14667662484551461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -837,10 +821,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>1.685100888776775E-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.73270280258902332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -864,10 +848,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>2.076020124258747E-8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.96080798454478178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -891,10 +875,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>0.38738631953783431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4.4288201779479952E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -906,30 +890,30 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>6.198291597976152E-3</v>
+        <v>6.1398889209995028E-3</v>
       </c>
       <c r="F10">
-        <v>2.4227396276961861E-2</v>
+        <v>2.2431637780251319E-2</v>
       </c>
       <c r="G10">
-        <v>8.4561965286033625E-4</v>
+        <v>1.1461098948525031E-3</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.9337962559963586E-4</v>
       </c>
       <c r="I10">
-        <v>3.1271307527798338E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.0711016221702959E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>17</v>
@@ -947,18 +931,18 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>3.5957079908254997E-8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.96775140738976617</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -976,10 +960,10 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>3.9492134393534148E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -987,53 +971,24 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
         <v>0</v>
       </c>
     </row>
@@ -1047,104 +1002,104 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2">
+        <v>1591.116149012608</v>
+      </c>
+      <c r="D2">
+        <v>2622.7432292251692</v>
+      </c>
+      <c r="E2">
+        <v>4213.8593782377766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C2">
-        <v>21.642223833984058</v>
-      </c>
-      <c r="D2">
-        <v>6.1974206049750062</v>
-      </c>
-      <c r="E2">
-        <v>27.83964443895907</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>0.16189627300187501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>0.99999999999198796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>0.83810372699812496</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>8.0120002464536985E-12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>0.50042663583094416</v>
+      </c>
+      <c r="D5">
+        <v>0.93383013405912429</v>
+      </c>
+      <c r="E5">
+        <v>0.7701807943040323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5">
-        <v>9.9549356227288832E-2</v>
-      </c>
-      <c r="D5">
-        <v>1.010099929580609</v>
-      </c>
-      <c r="E5">
-        <v>0.30224824117693672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -1152,7 +1107,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>7.5350701374629558</v>
+        <v>0.1982453292885257</v>
       </c>
     </row>
   </sheetData>
